--- a/dataSheetOriginal.xlsx
+++ b/dataSheetOriginal.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10912"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adai/Desktop/HackGT/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F77DE93B-E109-184D-8661-ED1C964BF242}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="645" yWindow="0" windowWidth="38640" windowHeight="15600" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15600" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jambeck et al. (2014)" sheetId="1" r:id="rId1"/>
@@ -1174,7 +1180,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="#,##0.000"/>
@@ -1338,6 +1344,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1664,7 +1673,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1677,11 +1686,11 @@
       <selection pane="bottomRight" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.83203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.5" style="3" customWidth="1"/>
-    <col min="3" max="3" width="11.125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" style="2" customWidth="1"/>
     <col min="4" max="5" width="18" style="1" customWidth="1"/>
     <col min="6" max="6" width="17" style="21" customWidth="1"/>
     <col min="7" max="7" width="18" style="21" customWidth="1"/>
@@ -1689,7 +1698,7 @@
     <col min="14" max="14" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="66" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="72" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1733,7 +1742,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>66</v>
       </c>
@@ -1777,7 +1786,7 @@
         <v>63050.750246483891</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="10" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" s="10" customFormat="1" ht="19" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>203</v>
       </c>
@@ -1821,7 +1830,7 @@
         <v>1017444.3013670277</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>42</v>
       </c>
@@ -1865,7 +1874,7 @@
         <v>136769.53907929838</v>
       </c>
     </row>
-    <row r="5" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>164</v>
       </c>
@@ -1909,7 +1918,7 @@
         <v>72.949252982826579</v>
       </c>
     </row>
-    <row r="6" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>129</v>
       </c>
@@ -1953,7 +1962,7 @@
         <v>1385.2805941465281</v>
       </c>
     </row>
-    <row r="7" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
@@ -1997,7 +2006,7 @@
         <v>320197.07602141215</v>
       </c>
     </row>
-    <row r="8" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>145</v>
       </c>
@@ -2041,7 +2050,7 @@
         <v>476.19967331910391</v>
       </c>
     </row>
-    <row r="9" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>84</v>
       </c>
@@ -2085,7 +2094,7 @@
         <v>24653.097687574467</v>
       </c>
     </row>
-    <row r="10" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>128</v>
       </c>
@@ -2129,7 +2138,7 @@
         <v>1718.3776323078444</v>
       </c>
     </row>
-    <row r="11" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>105</v>
       </c>
@@ -2173,7 +2182,7 @@
         <v>9914.7137692980523</v>
       </c>
     </row>
-    <row r="12" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>11</v>
       </c>
@@ -2217,7 +2226,7 @@
         <v>2210229.8560292465</v>
       </c>
     </row>
-    <row r="13" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>110</v>
       </c>
@@ -2261,7 +2270,7 @@
         <v>3718.7882519893419</v>
       </c>
     </row>
-    <row r="14" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>121</v>
       </c>
@@ -2305,7 +2314,7 @@
         <v>5738.855478648672</v>
       </c>
     </row>
-    <row r="15" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>113</v>
       </c>
@@ -2349,7 +2358,7 @@
         <v>6041.9576269840109</v>
       </c>
     </row>
-    <row r="16" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>50</v>
       </c>
@@ -2393,7 +2402,7 @@
         <v>119467.24730798835</v>
       </c>
     </row>
-    <row r="17" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>153</v>
       </c>
@@ -2437,7 +2446,7 @@
         <v>173.4254074454812</v>
       </c>
     </row>
-    <row r="18" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>90</v>
       </c>
@@ -2481,7 +2490,7 @@
         <v>20201.074187355647</v>
       </c>
     </row>
-    <row r="19" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
         <v>13</v>
       </c>
@@ -2525,7 +2534,7 @@
         <v>954198.09177678963</v>
       </c>
     </row>
-    <row r="20" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>165</v>
       </c>
@@ -2569,7 +2578,7 @@
         <v>78.444028266672262</v>
       </c>
     </row>
-    <row r="21" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>154</v>
       </c>
@@ -2613,7 +2622,7 @@
         <v>341.03925308648184</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>82</v>
       </c>
@@ -2657,7 +2666,7 @@
         <v>25769.975146598841</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>201</v>
       </c>
@@ -2701,7 +2710,7 @@
         <v>1149266.556957406</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>55</v>
       </c>
@@ -2745,7 +2754,7 @@
         <v>62833.765137565038</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>67</v>
       </c>
@@ -2789,7 +2798,7 @@
         <v>71863.46344261695</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>96</v>
       </c>
@@ -2833,7 +2842,7 @@
         <v>14667.581563690486</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>100</v>
       </c>
@@ -2877,7 +2886,7 @@
         <v>18475.018717956824</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>157</v>
       </c>
@@ -2921,7 +2930,7 @@
         <v>134.39017219989424</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>147</v>
       </c>
@@ -2965,7 +2974,7 @@
         <v>354.91545905823881</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>64</v>
       </c>
@@ -3009,7 +3018,7 @@
         <v>42561.730000856725</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
         <v>1</v>
       </c>
@@ -3053,7 +3062,7 @@
         <v>17814776.524812505</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>173</v>
       </c>
@@ -3097,7 +3106,7 @@
         <v>3.6308338911293783</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>175</v>
       </c>
@@ -3141,7 +3150,7 @@
         <v>1.5434928666997927</v>
       </c>
     </row>
-    <row r="34" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" ht="19" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>190</v>
       </c>
@@ -3185,7 +3194,7 @@
         <v>179973.07698017507</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>41</v>
       </c>
@@ -3229,7 +3238,7 @@
         <v>100870.01946722015</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>85</v>
       </c>
@@ -3273,7 +3282,7 @@
         <v>39853.394252112004</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>86</v>
       </c>
@@ -3317,7 +3326,7 @@
         <v>43479.889942311238</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>140</v>
       </c>
@@ -3361,7 +3370,7 @@
         <v>783.81965435953009</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>43</v>
       </c>
@@ -3405,7 +3414,7 @@
         <v>75894.871976187016</v>
       </c>
     </row>
-    <row r="40" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" ht="19" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>204</v>
       </c>
@@ -3449,7 +3458,7 @@
         <v>537163.49502707995</v>
       </c>
     </row>
-    <row r="41" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" ht="19" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>191</v>
       </c>
@@ -3493,7 +3502,7 @@
         <v>19593.328688549173</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>29</v>
       </c>
@@ -3537,7 +3546,7 @@
         <v>180453.69221835971</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>148</v>
       </c>
@@ -3581,7 +3590,7 @@
         <v>378.36008428449719</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>126</v>
       </c>
@@ -3625,7 +3634,7 @@
         <v>2610.8248489955754</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>130</v>
       </c>
@@ -3669,7 +3678,7 @@
         <v>4232.9102622095961</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>169</v>
       </c>
@@ -3713,7 +3722,7 @@
         <v>41.831539991647816</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>72</v>
       </c>
@@ -3757,7 +3766,7 @@
         <v>45611.57181027261</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>136</v>
       </c>
@@ -3801,7 +3810,7 @@
         <v>1428.4629449302001</v>
       </c>
     </row>
-    <row r="49" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" ht="19" x14ac:dyDescent="0.2">
       <c r="A49" s="8" t="s">
         <v>205</v>
       </c>
@@ -3845,7 +3854,7 @@
         <v>228670.84454936799</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>79</v>
       </c>
@@ -3889,7 +3898,7 @@
         <v>64204.810927420374</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>26</v>
       </c>
@@ -3933,7 +3942,7 @@
         <v>211020.82335072398</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" s="8" t="s">
         <v>9</v>
       </c>
@@ -3977,7 +3986,7 @@
         <v>1937427.8171359831</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>23</v>
       </c>
@@ -4021,7 +4030,7 @@
         <v>226859.53680650718</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>112</v>
       </c>
@@ -4065,7 +4074,7 @@
         <v>14124.130982400271</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>76</v>
       </c>
@@ -4109,7 +4118,7 @@
         <v>43484.439667273851</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>98</v>
       </c>
@@ -4153,7 +4162,7 @@
         <v>8367.1210813207017</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>171</v>
       </c>
@@ -4197,7 +4206,7 @@
         <v>6.8470270635693913</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>158</v>
       </c>
@@ -4241,7 +4250,7 @@
         <v>130.92237983748541</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>39</v>
       </c>
@@ -4285,7 +4294,7 @@
         <v>70995.342866580584</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>107</v>
       </c>
@@ -4329,7 +4338,7 @@
         <v>6421.8513456141027</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>62</v>
       </c>
@@ -4373,7 +4382,7 @@
         <v>34670.991067638017</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>122</v>
       </c>
@@ -4417,7 +4426,7 @@
         <v>5577.1794242387132</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>125</v>
       </c>
@@ -4461,7 +4470,7 @@
         <v>1824.3131181356707</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>111</v>
       </c>
@@ -4505,7 +4514,7 @@
         <v>15446.418771649407</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>49</v>
       </c>
@@ -4549,7 +4558,7 @@
         <v>24532.069458177015</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>54</v>
       </c>
@@ -4593,7 +4602,7 @@
         <v>33317.160448520255</v>
       </c>
     </row>
-    <row r="67" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" ht="19" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>202</v>
       </c>
@@ -4637,7 +4646,7 @@
         <v>325115.86190469866</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>161</v>
       </c>
@@ -4681,7 +4690,7 @@
         <v>91.584405514560956</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>80</v>
       </c>
@@ -4725,7 +4734,7 @@
         <v>18621.05478967946</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>155</v>
       </c>
@@ -4769,7 +4778,7 @@
         <v>147.79203160810226</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>123</v>
       </c>
@@ -4813,7 +4822,7 @@
         <v>2451.7005926677302</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>104</v>
       </c>
@@ -4857,7 +4866,7 @@
         <v>11501.537837218166</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>143</v>
       </c>
@@ -4901,7 +4910,7 @@
         <v>573.90812909334977</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>30</v>
       </c>
@@ -4945,7 +4954,7 @@
         <v>157697.97793791097</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>156</v>
       </c>
@@ -4989,7 +4998,7 @@
         <v>145.77461404977288</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>60</v>
       </c>
@@ -5033,7 +5042,7 @@
         <v>59889.103567314291</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>75</v>
       </c>
@@ -5077,7 +5086,7 @@
         <v>51946.775901772729</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>45</v>
       </c>
@@ -5121,7 +5130,7 @@
         <v>36103.309908068055</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>21</v>
       </c>
@@ -5165,7 +5174,7 @@
         <v>324177.50001151935</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>28</v>
       </c>
@@ -5209,7 +5218,7 @@
         <v>189169.04510280464</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>47</v>
       </c>
@@ -5253,7 +5262,7 @@
         <v>37606.349959790081</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>146</v>
       </c>
@@ -5297,7 +5306,7 @@
         <v>883.44801863573684</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83" s="8" t="s">
         <v>7</v>
       </c>
@@ -5341,7 +5350,7 @@
         <v>2881294.4494461729</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84" s="8" t="s">
         <v>3</v>
       </c>
@@ -5385,7 +5394,7 @@
         <v>7415202.2825536449</v>
       </c>
     </row>
-    <row r="85" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:14" ht="19" x14ac:dyDescent="0.2">
       <c r="A85" s="8" t="s">
         <v>192</v>
       </c>
@@ -5429,7 +5438,7 @@
         <v>460067.26739816868</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>78</v>
       </c>
@@ -5473,7 +5482,7 @@
         <v>47694.081000524711</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>87</v>
       </c>
@@ -5517,7 +5526,7 @@
         <v>14044.831960741703</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>152</v>
       </c>
@@ -5561,7 +5570,7 @@
         <v>210.34492889109154</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>63</v>
       </c>
@@ -5605,7 +5614,7 @@
         <v>28210.896125912892</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>53</v>
       </c>
@@ -5649,7 +5658,7 @@
         <v>45057.641350726277</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>92</v>
       </c>
@@ -5693,7 +5702,7 @@
         <v>59574.846860455655</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>20</v>
       </c>
@@ -5737,7 +5746,7 @@
         <v>177241.28702976173</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>151</v>
       </c>
@@ -5781,7 +5790,7 @@
         <v>233.27460312223243</v>
       </c>
     </row>
-    <row r="94" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:14" ht="19" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>206</v>
       </c>
@@ -5825,7 +5834,7 @@
         <v>2974.8873129206445</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>70</v>
       </c>
@@ -5869,7 +5878,7 @@
         <v>87109.429995500192</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>118</v>
       </c>
@@ -5913,7 +5922,7 @@
         <v>6977.2717292508314</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>74</v>
       </c>
@@ -5957,7 +5966,7 @@
         <v>610606.61261398345</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>81</v>
       </c>
@@ -6001,7 +6010,7 @@
         <v>52764.464846920848</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6045,7 +6054,7 @@
         <v>13479.006637357648</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>95</v>
       </c>
@@ -6089,7 +6098,7 @@
         <v>16653.877975026611</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>32</v>
       </c>
@@ -6133,7 +6142,7 @@
         <v>101852.18307135085</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>56</v>
       </c>
@@ -6177,7 +6186,7 @@
         <v>142787.08626743924</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>36</v>
       </c>
@@ -6221,7 +6230,7 @@
         <v>102576.5174881697</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>120</v>
       </c>
@@ -6265,7 +6274,7 @@
         <v>5477.9217376251081</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>137</v>
       </c>
@@ -6309,7 +6318,7 @@
         <v>1146.4439993409253</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>68</v>
       </c>
@@ -6353,7 +6362,7 @@
         <v>177625.19907459265</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A107" s="8" t="s">
         <v>8</v>
       </c>
@@ -6397,7 +6406,7 @@
         <v>1765977.4152452806</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>52</v>
       </c>
@@ -6441,7 +6450,7 @@
         <v>40143.264538275369</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>114</v>
       </c>
@@ -6485,7 +6494,7 @@
         <v>3756.6227997707956</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>116</v>
       </c>
@@ -6529,7 +6538,7 @@
         <v>5717.3365149980036</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>133</v>
       </c>
@@ -6573,7 +6582,7 @@
         <v>955.02839342408629</v>
       </c>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>89</v>
       </c>
@@ -6617,7 +6626,7 @@
         <v>39753.874760019971</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>48</v>
       </c>
@@ -6661,7 +6670,7 @@
         <v>73172.032833685676</v>
       </c>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>25</v>
       </c>
@@ -6705,7 +6714,7 @@
         <v>233392.76303593119</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>108</v>
       </c>
@@ -6749,7 +6758,7 @@
         <v>10698.808248508632</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>163</v>
       </c>
@@ -6793,7 +6802,7 @@
         <v>88.18109374187847</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>115</v>
       </c>
@@ -6837,7 +6846,7 @@
         <v>7243.9697046795418</v>
       </c>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>168</v>
       </c>
@@ -6881,7 +6890,7 @@
         <v>71.441319866141953</v>
       </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A119" s="8" t="s">
         <v>10</v>
       </c>
@@ -6925,7 +6934,7 @@
         <v>706583.34283509641</v>
       </c>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>46</v>
       </c>
@@ -6969,7 +6978,7 @@
         <v>287066.92591388035</v>
       </c>
     </row>
-    <row r="121" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:14" ht="19" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>193</v>
       </c>
@@ -7013,7 +7022,7 @@
         <v>11340.140969352828</v>
       </c>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>138</v>
       </c>
@@ -7057,7 +7066,7 @@
         <v>1043.3819790820378</v>
       </c>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>59</v>
       </c>
@@ -7101,7 +7110,7 @@
         <v>32387.321554800252</v>
       </c>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>144</v>
       </c>
@@ -7145,7 +7154,7 @@
         <v>367.74594446148649</v>
       </c>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>141</v>
       </c>
@@ -7189,7 +7198,7 @@
         <v>702.2558454225225</v>
       </c>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>91</v>
       </c>
@@ -7233,7 +7242,7 @@
         <v>11517.400071632852</v>
       </c>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>38</v>
       </c>
@@ -7277,7 +7286,7 @@
         <v>169438.6227977885</v>
       </c>
     </row>
-    <row r="128" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:14" ht="19" x14ac:dyDescent="0.2">
       <c r="A128" s="8" t="s">
         <v>194</v>
       </c>
@@ -7321,7 +7330,7 @@
         <v>2481008.4650440961</v>
       </c>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>172</v>
       </c>
@@ -7365,7 +7374,7 @@
         <v>5.2346987344757698</v>
       </c>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>162</v>
       </c>
@@ -7409,7 +7418,7 @@
         <v>155.63740344758384</v>
       </c>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>150</v>
       </c>
@@ -7453,7 +7462,7 @@
         <v>309.18185032265552</v>
       </c>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>93</v>
       </c>
@@ -7497,7 +7506,7 @@
         <v>9798.1859456800466</v>
       </c>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>103</v>
       </c>
@@ -7541,7 +7550,7 @@
         <v>11774.24186968291</v>
       </c>
     </row>
-    <row r="134" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:14" ht="19" x14ac:dyDescent="0.2">
       <c r="A134" s="8" t="s">
         <v>207</v>
       </c>
@@ -7585,7 +7594,7 @@
         <v>1221460.1016051194</v>
       </c>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>132</v>
       </c>
@@ -7629,7 +7638,7 @@
         <v>1350.2462354729496</v>
       </c>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>97</v>
       </c>
@@ -7673,7 +7682,7 @@
         <v>18675.567167753572</v>
       </c>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>51</v>
       </c>
@@ -7717,7 +7726,7 @@
         <v>70758.608783376563</v>
       </c>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>35</v>
       </c>
@@ -7761,7 +7770,7 @@
         <v>242328.21588869343</v>
       </c>
     </row>
-    <row r="139" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:14" ht="19" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>195</v>
       </c>
@@ -7805,7 +7814,7 @@
         <v>377110.85668252228</v>
       </c>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A140" s="8" t="s">
         <v>5</v>
       </c>
@@ -7849,7 +7858,7 @@
         <v>5088394.4751217533</v>
       </c>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>83</v>
       </c>
@@ -7893,7 +7902,7 @@
         <v>26855.403217741499</v>
       </c>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>73</v>
       </c>
@@ -7937,7 +7946,7 @@
         <v>19381.610531349343</v>
       </c>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>69</v>
       </c>
@@ -7981,7 +7990,7 @@
         <v>20481.385233591282</v>
       </c>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>134</v>
       </c>
@@ -8025,7 +8034,7 @@
         <v>1560.1717594500099</v>
       </c>
     </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
         <v>131</v>
       </c>
@@ -8069,7 +8078,7 @@
         <v>1614.8003207450461</v>
       </c>
     </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>94</v>
       </c>
@@ -8113,7 +8122,7 @@
         <v>8261.076720598563</v>
       </c>
     </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
         <v>34</v>
       </c>
@@ -8157,7 +8166,7 @@
         <v>128946.34248723094</v>
       </c>
     </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
         <v>159</v>
       </c>
@@ -8201,7 +8210,7 @@
         <v>181.50541313093441</v>
       </c>
     </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
         <v>135</v>
       </c>
@@ -8245,7 +8254,7 @@
         <v>741.80903553877295</v>
       </c>
     </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>102</v>
       </c>
@@ -8289,7 +8298,7 @@
         <v>8610.0648919209889</v>
       </c>
     </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>160</v>
       </c>
@@ -8333,7 +8342,7 @@
         <v>98.492458094672898</v>
       </c>
     </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
         <v>170</v>
       </c>
@@ -8377,7 +8386,7 @@
         <v>15.493964392888774</v>
       </c>
     </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
         <v>124</v>
       </c>
@@ -8421,7 +8430,7 @@
         <v>2995.7524952498679</v>
       </c>
     </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
         <v>106</v>
       </c>
@@ -8465,7 +8474,7 @@
         <v>10988.919907234178</v>
       </c>
     </row>
-    <row r="155" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:14" ht="19" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
         <v>196</v>
       </c>
@@ -8509,7 +8518,7 @@
         <v>13309.429781127159</v>
       </c>
     </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
         <v>61</v>
       </c>
@@ -8553,7 +8562,7 @@
         <v>43855.309647171722</v>
       </c>
     </row>
-    <row r="157" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:14" ht="19" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
         <v>197</v>
       </c>
@@ -8597,7 +8606,7 @@
         <v>738264.16124926961</v>
       </c>
     </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
         <v>119</v>
       </c>
@@ -8641,7 +8650,7 @@
         <v>5478.260045635654</v>
       </c>
     </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
         <v>57</v>
       </c>
@@ -8685,7 +8694,7 @@
         <v>121312.26678224352</v>
       </c>
     </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
         <v>99</v>
       </c>
@@ -8729,7 +8738,7 @@
         <v>10877.618230688426</v>
       </c>
     </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
         <v>139</v>
       </c>
@@ -8773,7 +8782,7 @@
         <v>984.81103844333336</v>
       </c>
     </row>
-    <row r="162" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:14" ht="19" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
         <v>208</v>
       </c>
@@ -8817,7 +8826,7 @@
         <v>176588.56944418544</v>
       </c>
     </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>31</v>
       </c>
@@ -8861,7 +8870,7 @@
         <v>289600.66743829485</v>
       </c>
     </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A164" s="8" t="s">
         <v>14</v>
       </c>
@@ -8905,7 +8914,7 @@
         <v>836279.13698467251</v>
       </c>
     </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
         <v>40</v>
       </c>
@@ -8949,7 +8958,7 @@
         <v>58932.137027910809</v>
       </c>
     </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A166" s="8" t="s">
         <v>6</v>
       </c>
@@ -8993,7 +9002,7 @@
         <v>1918669.5871266001</v>
       </c>
     </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
         <v>71</v>
       </c>
@@ -9037,7 +9046,7 @@
         <v>52060.787042468044</v>
       </c>
     </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
         <v>109</v>
       </c>
@@ -9081,7 +9090,7 @@
         <v>6394.4538460009871</v>
       </c>
     </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
         <v>174</v>
       </c>
@@ -9125,7 +9134,7 @@
         <v>3.8098397679131368</v>
       </c>
     </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
         <v>127</v>
       </c>
@@ -9169,7 +9178,7 @@
         <v>5245.3494833989771</v>
       </c>
     </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
         <v>18</v>
       </c>
@@ -9213,7 +9222,7 @@
         <v>304959.66756731039</v>
       </c>
     </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
         <v>37</v>
       </c>
@@ -9257,7 +9266,7 @@
         <v>64630.829163770824</v>
       </c>
     </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
         <v>44</v>
       </c>
@@ -9301,7 +9310,7 @@
         <v>214195.86185496097</v>
       </c>
     </row>
-    <row r="174" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:14" ht="19" x14ac:dyDescent="0.2">
       <c r="A174" s="8" t="s">
         <v>209</v>
       </c>
@@ -9345,7 +9354,7 @@
         <v>2179507.6108297263</v>
       </c>
     </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
         <v>77</v>
       </c>
@@ -9389,7 +9398,7 @@
         <v>53497.521943845437</v>
       </c>
     </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
         <v>58</v>
       </c>
@@ -9433,7 +9442,7 @@
         <v>96994.484789929644</v>
       </c>
     </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
         <v>167</v>
       </c>
@@ -9477,7 +9486,7 @@
         <v>99.547300257058495</v>
       </c>
     </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
         <v>101</v>
       </c>
@@ -9521,7 +9530,7 @@
         <v>10271.874053823489</v>
       </c>
     </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
         <v>24</v>
       </c>
@@ -9565,7 +9574,7 @@
         <v>73512.080648707575</v>
       </c>
     </row>
-    <row r="180" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:14" ht="19" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
         <v>198</v>
       </c>
@@ -9609,7 +9618,7 @@
         <v>440700.70164951571</v>
       </c>
     </row>
-    <row r="181" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A181" s="8" t="s">
         <v>15</v>
       </c>
@@ -9653,7 +9662,7 @@
         <v>790234.82288088207</v>
       </c>
     </row>
-    <row r="182" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
         <v>166</v>
       </c>
@@ -9697,7 +9706,7 @@
         <v>69.848675395335107</v>
       </c>
     </row>
-    <row r="183" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
         <v>142</v>
       </c>
@@ -9741,7 +9750,7 @@
         <v>861.12510455955896</v>
       </c>
     </row>
-    <row r="184" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
         <v>27</v>
       </c>
@@ -9785,7 +9794,7 @@
         <v>233388.41892091386</v>
       </c>
     </row>
-    <row r="185" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
         <v>117</v>
       </c>
@@ -9829,7 +9838,7 @@
         <v>5910.4648851139691</v>
       </c>
     </row>
-    <row r="186" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
         <v>33</v>
       </c>
@@ -9873,7 +9882,7 @@
         <v>94164.76305456621</v>
       </c>
     </row>
-    <row r="187" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A187" s="8" t="s">
         <v>16</v>
       </c>
@@ -9917,7 +9926,7 @@
         <v>336818.69773909921</v>
       </c>
     </row>
-    <row r="188" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:14" ht="19" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
         <v>210</v>
       </c>
@@ -9961,7 +9970,7 @@
         <v>8037.0007498537889</v>
       </c>
     </row>
-    <row r="189" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
         <v>149</v>
       </c>
@@ -10005,7 +10014,7 @@
         <v>296.14823561171039</v>
       </c>
     </row>
-    <row r="190" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
         <v>65</v>
       </c>
@@ -10049,7 +10058,7 @@
         <v>38006.444385908515</v>
       </c>
     </row>
-    <row r="191" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:14" ht="19" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
         <v>199</v>
       </c>
@@ -10093,7 +10102,7 @@
         <v>154242.8027964932</v>
       </c>
     </row>
-    <row r="192" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:14" ht="19" x14ac:dyDescent="0.2">
       <c r="A192" s="8" t="s">
         <v>200</v>
       </c>
@@ -10137,7 +10146,7 @@
         <v>4172828.1745814602</v>
       </c>
     </row>
-    <row r="193" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
         <v>22</v>
       </c>
@@ -10181,7 +10190,7 @@
         <v>513907.48945485102</v>
       </c>
     </row>
-    <row r="194" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:14" x14ac:dyDescent="0.2">
       <c r="L194" s="19" t="s">
         <v>211</v>
       </c>
@@ -10192,53 +10201,53 @@
         <v>69143289.620641351</v>
       </c>
     </row>
-    <row r="195" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B195" s="14" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="196" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B196" s="14" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="197" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:14" ht="19" x14ac:dyDescent="0.2">
       <c r="B197" s="1" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="198" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:14" ht="19" x14ac:dyDescent="0.2">
       <c r="B198" s="1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="199" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:14" ht="19" x14ac:dyDescent="0.2">
       <c r="B199" s="1" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="200" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B200" s="1" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="201" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:14" ht="19" x14ac:dyDescent="0.2">
       <c r="B201" s="1" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="202" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B202" s="1" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="203" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:14" ht="19" x14ac:dyDescent="0.2">
       <c r="B203" s="1" t="s">
         <v>215</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:N193">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N193">
     <sortCondition ref="A2:A193"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
